--- a/docs/SCRATCH應用競賽國小甲組動畫設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國小甲組動畫設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="214">
   <si>
     <t>序</t>
   </si>
@@ -48,622 +48,619 @@
     <t>大甲區大甲國小</t>
   </si>
   <si>
-    <t>楊秉諺</t>
+    <t>李宥瑩</t>
   </si>
   <si>
     <t>徐敏議</t>
   </si>
   <si>
-    <t>xbj15n7</t>
-  </si>
-  <si>
-    <t>g58kf3</t>
+    <t>yg96p7</t>
+  </si>
+  <si>
+    <t>x38h6</t>
+  </si>
+  <si>
+    <t>張騰睿</t>
+  </si>
+  <si>
+    <t>jkf38tv8</t>
+  </si>
+  <si>
+    <t>dxb59n3</t>
   </si>
   <si>
     <t>大肚區大肚國小</t>
   </si>
   <si>
-    <t>陳妍妮</t>
-  </si>
-  <si>
-    <t>陳宗鉉</t>
-  </si>
-  <si>
-    <t>v63m4</t>
-  </si>
-  <si>
-    <t>sm37e3</t>
-  </si>
-  <si>
-    <t>姚詠婕</t>
-  </si>
-  <si>
-    <t>an13my6</t>
-  </si>
-  <si>
-    <t>an32kf5</t>
-  </si>
-  <si>
-    <t>趙方婷</t>
-  </si>
-  <si>
-    <t>et18k6</t>
-  </si>
-  <si>
-    <t>etv57y6</t>
+    <t>陳芊妤</t>
+  </si>
+  <si>
+    <t>洪豪哲</t>
+  </si>
+  <si>
+    <t>r93c2</t>
+  </si>
+  <si>
+    <t>b52cd4</t>
   </si>
   <si>
     <t>大里區永隆國小</t>
   </si>
   <si>
-    <t>洪以恩</t>
-  </si>
-  <si>
-    <t>施志豪</t>
-  </si>
-  <si>
-    <t>jk26rs1</t>
-  </si>
-  <si>
-    <t>wh7rs4</t>
-  </si>
-  <si>
-    <t>大里區益民國小</t>
-  </si>
-  <si>
-    <t>許瀚鐸</t>
-  </si>
-  <si>
-    <t>丁子評</t>
-  </si>
-  <si>
-    <t>jk2pe8</t>
-  </si>
-  <si>
-    <t>hpe32y4</t>
-  </si>
-  <si>
-    <t>張銓益</t>
-  </si>
-  <si>
-    <t>程芳鈺</t>
-  </si>
-  <si>
-    <t>bj70m8</t>
-  </si>
-  <si>
-    <t>dxb60p1</t>
-  </si>
-  <si>
-    <t>大里區崇光國小</t>
-  </si>
-  <si>
-    <t>張婕芸</t>
-  </si>
-  <si>
-    <t>李培銘</t>
-  </si>
-  <si>
-    <t>dx2w8</t>
-  </si>
-  <si>
-    <t>y27fr8</t>
+    <t>魏碩志</t>
+  </si>
+  <si>
+    <t>王建惟</t>
+  </si>
+  <si>
+    <t>ygw98j8</t>
+  </si>
+  <si>
+    <t>k13fr4</t>
+  </si>
+  <si>
+    <t>林祚銘</t>
+  </si>
+  <si>
+    <t>hpe30x5</t>
+  </si>
+  <si>
+    <t>nc6m1</t>
+  </si>
+  <si>
+    <t>吳彩瑜</t>
+  </si>
+  <si>
+    <t>yg7cd9</t>
+  </si>
+  <si>
+    <t>an18k3</t>
   </si>
   <si>
     <t>大雅區大明國小</t>
   </si>
   <si>
-    <t>陳曼芸</t>
+    <t>徐薏安</t>
   </si>
   <si>
     <t>鐘世帆</t>
   </si>
   <si>
-    <t>b92x7</t>
-  </si>
-  <si>
-    <t>tv37yg4</t>
-  </si>
-  <si>
-    <t>劉湘芸</t>
-  </si>
-  <si>
-    <t>d8nc3</t>
-  </si>
-  <si>
-    <t>x50x1</t>
-  </si>
-  <si>
-    <t>黃昱棻</t>
-  </si>
-  <si>
-    <t>kf13d4</t>
-  </si>
-  <si>
-    <t>p93wh5</t>
-  </si>
-  <si>
-    <t>顏婕珽</t>
-  </si>
-  <si>
-    <t>rsm58v8</t>
-  </si>
-  <si>
-    <t>c95w6</t>
-  </si>
-  <si>
-    <t>太平區宜欣國小</t>
-  </si>
-  <si>
-    <t>洪郁晴</t>
-  </si>
-  <si>
-    <t>李佳蓉</t>
-  </si>
-  <si>
-    <t>hp75sm7</t>
-  </si>
-  <si>
-    <t>nc51t2</t>
+    <t>wh15j5</t>
+  </si>
+  <si>
+    <t>dx50x7</t>
+  </si>
+  <si>
+    <t>大雅區六寶國小</t>
+  </si>
+  <si>
+    <t>蔡亞軒</t>
+  </si>
+  <si>
+    <t>許富量</t>
+  </si>
+  <si>
+    <t>j54et5</t>
+  </si>
+  <si>
+    <t>v28h1</t>
+  </si>
+  <si>
+    <t>太平區東平國小</t>
+  </si>
+  <si>
+    <t>林品禎</t>
+  </si>
+  <si>
+    <t>余忠鴻</t>
+  </si>
+  <si>
+    <t>tv12d8</t>
+  </si>
+  <si>
+    <t>pet31dx7</t>
   </si>
   <si>
     <t>北屯區仁美國小</t>
   </si>
   <si>
-    <t>吳華恩</t>
+    <t>林詠憲</t>
   </si>
   <si>
     <t>孫嚭順</t>
   </si>
   <si>
-    <t>cdx96hp7</t>
-  </si>
-  <si>
-    <t>dx98r7</t>
-  </si>
-  <si>
-    <t>陳珊茹</t>
-  </si>
-  <si>
-    <t>xbj9dx9</t>
-  </si>
-  <si>
-    <t>e44gw5</t>
-  </si>
-  <si>
-    <t>林紫婕</t>
-  </si>
-  <si>
-    <t>my18x2</t>
-  </si>
-  <si>
-    <t>tv82d7</t>
-  </si>
-  <si>
-    <t>北屯區文昌國小</t>
-  </si>
-  <si>
-    <t>林亭旭</t>
-  </si>
-  <si>
-    <t>晋鳳山</t>
-  </si>
-  <si>
-    <t>yg58tv7</t>
-  </si>
-  <si>
-    <t>c71s3</t>
-  </si>
-  <si>
-    <t>北屯區東光國小</t>
-  </si>
-  <si>
-    <t>陳奕銘</t>
-  </si>
-  <si>
-    <t>李清峯</t>
-  </si>
-  <si>
-    <t>c13e2</t>
-  </si>
-  <si>
-    <t>b10fr3</t>
-  </si>
-  <si>
-    <t>康牧哲</t>
-  </si>
-  <si>
-    <t>林亮君</t>
-  </si>
-  <si>
-    <t>ygw54g4</t>
-  </si>
-  <si>
-    <t>rs48my3</t>
-  </si>
-  <si>
-    <t>何采穎</t>
-  </si>
-  <si>
-    <t>smy30et6</t>
-  </si>
-  <si>
-    <t>wh30b7</t>
-  </si>
-  <si>
-    <t>劉珈妤</t>
-  </si>
-  <si>
-    <t>v50x9</t>
-  </si>
-  <si>
-    <t>k49nc3</t>
+    <t>hpe60wh9</t>
+  </si>
+  <si>
+    <t>h61gw3</t>
+  </si>
+  <si>
+    <t>張書承</t>
+  </si>
+  <si>
+    <t>t82xb8</t>
+  </si>
+  <si>
+    <t>m27m5</t>
+  </si>
+  <si>
+    <t>徐幼波</t>
+  </si>
+  <si>
+    <t>e21x8</t>
+  </si>
+  <si>
+    <t>pet50sm8</t>
+  </si>
+  <si>
+    <t>王辰揚</t>
+  </si>
+  <si>
+    <t>yg44m8</t>
+  </si>
+  <si>
+    <t>gw9w5</t>
   </si>
   <si>
     <t>北屯區建功國小</t>
   </si>
   <si>
-    <t>黃以晴</t>
+    <t>康禎恬</t>
   </si>
   <si>
     <t>盧建宏</t>
   </si>
   <si>
-    <t>frs18kf2</t>
-  </si>
-  <si>
-    <t>bj36fr4</t>
-  </si>
-  <si>
-    <t>許宇佳</t>
-  </si>
-  <si>
-    <t>anc73c9</t>
-  </si>
-  <si>
-    <t>n67my8</t>
+    <t>sm57dx7</t>
+  </si>
+  <si>
+    <t>xbj90v3</t>
+  </si>
+  <si>
+    <t>劉芷榕</t>
+  </si>
+  <si>
+    <t>pe14bj9</t>
+  </si>
+  <si>
+    <t>wh85v8</t>
+  </si>
+  <si>
+    <t>朱郁茜</t>
+  </si>
+  <si>
+    <t>xb69d5</t>
+  </si>
+  <si>
+    <t>et92xb4</t>
+  </si>
+  <si>
+    <t>林郁潔</t>
+  </si>
+  <si>
+    <t>gw57wh3</t>
+  </si>
+  <si>
+    <t>c57hp5</t>
   </si>
   <si>
     <t>北屯區軍功國小</t>
   </si>
   <si>
-    <t>謝艾璇</t>
-  </si>
-  <si>
-    <t>余嘉樺</t>
-  </si>
-  <si>
-    <t>gw74w2</t>
-  </si>
-  <si>
-    <t>rsm7n1</t>
+    <t>張凱鈞</t>
+  </si>
+  <si>
+    <t>謝亞文</t>
+  </si>
+  <si>
+    <t>g81p8</t>
+  </si>
+  <si>
+    <t>fr31s7</t>
+  </si>
+  <si>
+    <t>賴宣佑</t>
+  </si>
+  <si>
+    <t>jkf46j2</t>
+  </si>
+  <si>
+    <t>kfr59s6</t>
+  </si>
+  <si>
+    <t>北屯區陳平國小</t>
+  </si>
+  <si>
+    <t>劉念慈</t>
+  </si>
+  <si>
+    <t>周冠廷</t>
+  </si>
+  <si>
+    <t>xb96w6</t>
+  </si>
+  <si>
+    <t>b92wh8</t>
+  </si>
+  <si>
+    <t>彭俞僑</t>
+  </si>
+  <si>
+    <t>dx3t5</t>
+  </si>
+  <si>
+    <t>p20tv8</t>
+  </si>
+  <si>
+    <t>薛宜庭</t>
+  </si>
+  <si>
+    <t>jkf43f6</t>
+  </si>
+  <si>
+    <t>my31p2</t>
+  </si>
+  <si>
+    <t>北區育仁小學</t>
+  </si>
+  <si>
+    <t>林思妤</t>
+  </si>
+  <si>
+    <t>劉佳瀅</t>
+  </si>
+  <si>
+    <t>my47fr6</t>
+  </si>
+  <si>
+    <t>dx4m7</t>
+  </si>
+  <si>
+    <t>李耘寬</t>
+  </si>
+  <si>
+    <t>cd26kf2</t>
+  </si>
+  <si>
+    <t>kf12jk3</t>
+  </si>
+  <si>
+    <t>北區篤行國小</t>
+  </si>
+  <si>
+    <t>林志威</t>
+  </si>
+  <si>
+    <t>呂健聰</t>
+  </si>
+  <si>
+    <t>j56t8</t>
+  </si>
+  <si>
+    <t>hp64x3</t>
+  </si>
+  <si>
+    <t>陳宥菁</t>
+  </si>
+  <si>
+    <t>et75an1</t>
+  </si>
+  <si>
+    <t>bj65g5</t>
   </si>
   <si>
     <t>北區賴厝國小</t>
   </si>
   <si>
-    <t>楊侍勳</t>
+    <t>賴彥丞</t>
   </si>
   <si>
     <t>張字和</t>
   </si>
   <si>
-    <t>xbj83x5</t>
-  </si>
-  <si>
-    <t>k58d8</t>
+    <t>nc7h2</t>
+  </si>
+  <si>
+    <t>jk96y4</t>
+  </si>
+  <si>
+    <t>廖小葵</t>
+  </si>
+  <si>
+    <t>rs2y6</t>
+  </si>
+  <si>
+    <t>pet37x3</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>顧和叡</t>
+  </si>
+  <si>
+    <t>陳雅玲</t>
+  </si>
+  <si>
+    <t>hpe24y5</t>
+  </si>
+  <si>
+    <t>dx84h3</t>
   </si>
   <si>
     <t>西屯區上石國小</t>
   </si>
   <si>
-    <t>莊易倫</t>
+    <t>張達恩</t>
   </si>
   <si>
     <t>周百瑩</t>
   </si>
   <si>
-    <t>kf3rs2</t>
-  </si>
-  <si>
-    <t>j60cd3</t>
-  </si>
-  <si>
-    <t>陳宜君</t>
-  </si>
-  <si>
-    <t>w13v2</t>
-  </si>
-  <si>
-    <t>dxb90n8</t>
+    <t>t38w2</t>
+  </si>
+  <si>
+    <t>bjk34nc7</t>
+  </si>
+  <si>
+    <t>陳芷妤</t>
+  </si>
+  <si>
+    <t>frs38nc5</t>
+  </si>
+  <si>
+    <t>c48s7</t>
   </si>
   <si>
     <t>西屯區上安國小</t>
   </si>
   <si>
-    <t>李逸臻</t>
+    <t>王愷輝</t>
   </si>
   <si>
     <t>陳美君</t>
   </si>
   <si>
-    <t>yg53sm2</t>
-  </si>
-  <si>
-    <t>frs6h4</t>
-  </si>
-  <si>
-    <t>西屯區永安國小</t>
-  </si>
-  <si>
-    <t>林羿成</t>
-  </si>
-  <si>
-    <t>林正雄</t>
-  </si>
-  <si>
-    <t>t20xb3</t>
-  </si>
-  <si>
-    <t>et97p4</t>
-  </si>
-  <si>
-    <t>西屯區長安國小</t>
-  </si>
-  <si>
-    <t>孫英凱</t>
-  </si>
-  <si>
-    <t>王文君</t>
-  </si>
-  <si>
-    <t>g81h2</t>
-  </si>
-  <si>
-    <t>wh88xb4</t>
-  </si>
-  <si>
-    <t>何綵綾</t>
-  </si>
-  <si>
-    <t>yg41b5</t>
-  </si>
-  <si>
-    <t>pe29y8</t>
-  </si>
-  <si>
-    <t>江柏賢</t>
-  </si>
-  <si>
-    <t>c93m9</t>
-  </si>
-  <si>
-    <t>anc45p9</t>
-  </si>
-  <si>
-    <t>陳苓瑜</t>
-  </si>
-  <si>
-    <t>v40wh5</t>
-  </si>
-  <si>
-    <t>t93rs9</t>
-  </si>
-  <si>
-    <t>西屯區惠來國小</t>
-  </si>
-  <si>
-    <t>陳軒宇</t>
-  </si>
-  <si>
-    <t>陳彥穎</t>
-  </si>
-  <si>
-    <t>jkf96c3</t>
-  </si>
-  <si>
-    <t>dx51p4</t>
+    <t>v95f8</t>
+  </si>
+  <si>
+    <t>yg79cd4</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國小</t>
   </si>
   <si>
-    <t>吳庭沛</t>
+    <t>董婷榆</t>
   </si>
   <si>
     <t>翁小惠</t>
   </si>
   <si>
-    <t>g56t2</t>
-  </si>
-  <si>
-    <t>d20xb1</t>
+    <t>jkf31d8</t>
+  </si>
+  <si>
+    <t>rsm98nc3</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
-    <t>劉佳宜</t>
+    <t>吳芷琳</t>
   </si>
   <si>
     <t>許皓欣</t>
   </si>
   <si>
-    <t>dx50x4</t>
-  </si>
-  <si>
-    <t>t69et9</t>
-  </si>
-  <si>
-    <t>王之賢</t>
-  </si>
-  <si>
-    <t>sm55rs9</t>
-  </si>
-  <si>
-    <t>pe94s4</t>
-  </si>
-  <si>
-    <t>洪韶彤</t>
-  </si>
-  <si>
-    <t>fr14r7</t>
-  </si>
-  <si>
-    <t>kf5k3</t>
-  </si>
-  <si>
-    <t>王韋云</t>
-  </si>
-  <si>
-    <t>cd80r2</t>
-  </si>
-  <si>
-    <t>sm25e4</t>
+    <t>f14cd2</t>
+  </si>
+  <si>
+    <t>my61b4</t>
+  </si>
+  <si>
+    <t>李睿羲</t>
+  </si>
+  <si>
+    <t>g83t8</t>
+  </si>
+  <si>
+    <t>cd86fr7</t>
+  </si>
+  <si>
+    <t>洪妏菀</t>
+  </si>
+  <si>
+    <t>gw6pe6</t>
+  </si>
+  <si>
+    <t>pet78tv8</t>
   </si>
   <si>
     <t>南屯區大墩國小</t>
   </si>
   <si>
-    <t>陳宣蓉</t>
+    <t>陳瑀婕</t>
   </si>
   <si>
     <t>賴明珠</t>
   </si>
   <si>
-    <t>xb98c6</t>
-  </si>
-  <si>
-    <t>x46tv8</t>
-  </si>
-  <si>
-    <t>楊淂甯</t>
-  </si>
-  <si>
-    <t>tv99f5</t>
-  </si>
-  <si>
-    <t>cd75wh4</t>
-  </si>
-  <si>
-    <t>林家慶</t>
-  </si>
-  <si>
-    <t>呂岳霖</t>
-  </si>
-  <si>
-    <t>rsm21xb5</t>
-  </si>
-  <si>
-    <t>r28bj1</t>
-  </si>
-  <si>
-    <t>南屯區文山國小</t>
-  </si>
-  <si>
-    <t>陳妤婕</t>
-  </si>
-  <si>
-    <t>柯晁富</t>
-  </si>
-  <si>
-    <t>k59f1</t>
-  </si>
-  <si>
-    <t>myg31c6</t>
-  </si>
-  <si>
-    <t>南屯區東興國小</t>
-  </si>
-  <si>
-    <t>林郁芃</t>
-  </si>
-  <si>
-    <t>楊詠翔</t>
-  </si>
-  <si>
-    <t>g43xb6</t>
-  </si>
-  <si>
-    <t>v68x6</t>
+    <t>n32t8</t>
+  </si>
+  <si>
+    <t>rs51pe3</t>
+  </si>
+  <si>
+    <t>南屯區永春國小</t>
+  </si>
+  <si>
+    <t>古宇宣</t>
+  </si>
+  <si>
+    <t>賴鴻皓</t>
+  </si>
+  <si>
+    <t>k12et7</t>
+  </si>
+  <si>
+    <t>s96w8</t>
+  </si>
+  <si>
+    <t>林宖逸</t>
+  </si>
+  <si>
+    <t>etv9m6</t>
+  </si>
+  <si>
+    <t>bj69sm2</t>
+  </si>
+  <si>
+    <t>南屯區南屯國小</t>
+  </si>
+  <si>
+    <t>黃妤涵</t>
+  </si>
+  <si>
+    <t>陳韻如</t>
+  </si>
+  <si>
+    <t>hpe51xb3</t>
+  </si>
+  <si>
+    <t>etv94h7</t>
+  </si>
+  <si>
+    <t>南屯區惠文國小</t>
+  </si>
+  <si>
+    <t>張詠睿</t>
+  </si>
+  <si>
+    <t>林義喆</t>
+  </si>
+  <si>
+    <t>dx4gw4</t>
+  </si>
+  <si>
+    <t>ncd9tv8</t>
   </si>
   <si>
     <t>南區樹義國小</t>
   </si>
   <si>
-    <t>張卉</t>
+    <t>童薰慧</t>
   </si>
   <si>
     <t>陳雅儀</t>
   </si>
   <si>
-    <t>pe31p9</t>
-  </si>
-  <si>
-    <t>rs36c2</t>
-  </si>
-  <si>
-    <t>童薰慧</t>
-  </si>
-  <si>
-    <t>c34hp4</t>
-  </si>
-  <si>
-    <t>p29fr3</t>
+    <t>b66v8</t>
+  </si>
+  <si>
+    <t>my16jk3</t>
+  </si>
+  <si>
+    <t>胡芸慈</t>
+  </si>
+  <si>
+    <t>myg3d5</t>
+  </si>
+  <si>
+    <t>myg75r3</t>
   </si>
   <si>
     <t>烏日區九德國小</t>
   </si>
   <si>
-    <t>楊㝢安</t>
+    <t>蔡閎勝</t>
   </si>
   <si>
     <t>吳嘉貿</t>
   </si>
   <si>
-    <t>jkf64yg5</t>
-  </si>
-  <si>
-    <t>bj51r4</t>
+    <t>h79d3</t>
+  </si>
+  <si>
+    <t>fr16nc5</t>
+  </si>
+  <si>
+    <t>張哲郡</t>
+  </si>
+  <si>
+    <t>j48jk7</t>
+  </si>
+  <si>
+    <t>fr65g9</t>
+  </si>
+  <si>
+    <t>黃立宇</t>
+  </si>
+  <si>
+    <t>y37w3</t>
+  </si>
+  <si>
+    <t>m17tv4</t>
+  </si>
+  <si>
+    <t>神岡區神岡國小</t>
+  </si>
+  <si>
+    <t>王育信</t>
+  </si>
+  <si>
+    <t>林奎光</t>
+  </si>
+  <si>
+    <t>frs80j3</t>
+  </si>
+  <si>
+    <t>frs13n4</t>
+  </si>
+  <si>
+    <t>清水區西寧國小</t>
+  </si>
+  <si>
+    <t>王品媗</t>
+  </si>
+  <si>
+    <t>丁浩展</t>
+  </si>
+  <si>
+    <t>r62sm2</t>
+  </si>
+  <si>
+    <t>jk53f9</t>
   </si>
   <si>
     <t>潭子區潭子國小</t>
   </si>
   <si>
-    <t>戴婧卉</t>
+    <t>胡心馨</t>
   </si>
   <si>
     <t>鍾溫和</t>
   </si>
   <si>
-    <t>r11wh2</t>
-  </si>
-  <si>
-    <t>hp55nc3</t>
-  </si>
-  <si>
-    <t>陳宜亭</t>
-  </si>
-  <si>
-    <t>ncd34cd8</t>
-  </si>
-  <si>
-    <t>an1tv1</t>
-  </si>
-  <si>
-    <t>潭子區潭陽國小</t>
-  </si>
-  <si>
-    <t>張笠瑄</t>
-  </si>
-  <si>
-    <t>徐國益</t>
-  </si>
-  <si>
-    <t>j93a3</t>
-  </si>
-  <si>
-    <t>an37tv5</t>
+    <t>j93t5</t>
+  </si>
+  <si>
+    <t>cdx39f5</t>
+  </si>
+  <si>
+    <t>豐原區葫蘆墩國小</t>
+  </si>
+  <si>
+    <t>張伯逸</t>
+  </si>
+  <si>
+    <t>林盈全</t>
+  </si>
+  <si>
+    <t>kf8s6</t>
+  </si>
+  <si>
+    <t>r25t8</t>
   </si>
 </sst>
 </file>
@@ -1665,11 +1662,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1726,19 +1723,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1749,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -1772,19 +1769,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1795,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -1818,19 +1815,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1841,19 +1838,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1864,19 +1861,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1887,19 +1884,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1910,19 +1907,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1933,19 +1930,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1956,19 +1953,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1979,19 +1976,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2002,19 +1999,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2025,19 +2022,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2048,19 +2045,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2071,19 +2068,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2094,19 +2091,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2117,19 +2114,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2140,19 +2137,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2163,19 +2160,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2186,19 +2183,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2209,19 +2206,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2232,19 +2229,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2255,19 +2252,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2278,19 +2275,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2301,19 +2298,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2324,19 +2321,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2347,19 +2344,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2370,19 +2367,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2393,19 +2390,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2416,19 +2413,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2439,19 +2436,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2462,19 +2459,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2485,19 +2482,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2508,19 +2505,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2531,19 +2528,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="E38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="G38" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2554,19 +2551,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2577,19 +2574,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2600,19 +2597,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2623,13 +2620,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>173</v>
@@ -2646,19 +2643,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2669,19 +2666,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2692,19 +2689,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2715,19 +2712,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2738,19 +2735,19 @@
         <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2761,19 +2758,19 @@
         <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2784,19 +2781,19 @@
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2807,19 +2804,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2830,19 +2827,19 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
